--- a/keywordDrivenFramework-master/keywordDrivenFramework-master/src/test/java/com/companyname/projectname/Data/TestSuite1.xlsx
+++ b/keywordDrivenFramework-master/keywordDrivenFramework-master/src/test/java/com/companyname/projectname/Data/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="15555" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="15270" windowHeight="6135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="TC03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1:N19"/>
+  <oleSize ref="A1:I19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
